--- a/Thesis/TO.xlsx
+++ b/Thesis/TO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6E3854-D2D8-4A36-94B6-5CA09AB4BFA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D3A814-0C77-4A67-A146-6079EF53F74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,947 +439,947 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.11906359486623209</v>
+        <v>-3.9812505328261041E-2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.2269944072487223</v>
+        <v>8.1497943453528135E-2</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.14252973888557161</v>
+        <v>-1.11004998944088E-2</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.22968437293683891</v>
+        <v>0.1061236268018708</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.33887539554875451</v>
+        <v>0.23988213391872651</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.19686787578878581</v>
+        <v>3.096791390844E-2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.22951897972643309</v>
+        <v>9.132052665648846E-2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.22539561627118701</v>
+        <v>0.75353752538102037</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.18956464146080809</v>
+        <v>0.1169877121524333</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.27981834067763139</v>
+        <v>0.1869471459937635</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.23348203628136091</v>
+        <v>0.1354085819158268</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.2421030887561548</v>
+        <v>0.1211534085732253</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.20747768310359169</v>
+        <v>8.3171916637210908E-2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.23344935805616979</v>
+        <v>0.10444294965840401</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.32562073210686132</v>
+        <v>0.2074732627559373</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.28870664371591648</v>
+        <v>0.16803836226187099</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.2008803594833061</v>
+        <v>9.782977660357281E-2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.17708074264421361</v>
+        <v>-1.3306559815087779E-2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.2185087147510921</v>
+        <v>7.5413421842349407E-2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.23983134016066729</v>
+        <v>0.1107358898616649</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.12107417378830081</v>
+        <v>-1.67872769464508E-2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.1741998680700885</v>
+        <v>1.936891236104538E-2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.17689116598349219</v>
+        <v>3.2254056640686993E-2</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.19744988161321139</v>
+        <v>9.4089251057886847E-2</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.16464278136531579</v>
+        <v>2.4025652041383158E-3</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.2050770176404817</v>
+        <v>4.8063792547982508E-2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.15673252596213791</v>
+        <v>4.0751512749030838E-3</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.20430365473261969</v>
+        <v>0.1296135209889962</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1.4834684738802161E-2</v>
+        <v>-0.1664053254813519</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>-1.398625364571579E-2</v>
+        <v>-0.23238484535320611</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1.07924577775223E-2</v>
+        <v>-0.1163922020984452</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9.2492498559703651E-2</v>
+        <v>-4.8104615563262287E-2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>-3.8222579896734901E-2</v>
+        <v>-0.27290430276600142</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>7.5452496572446404E-2</v>
+        <v>-9.2546883193327767E-2</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>-1.9904682608905661E-3</v>
+        <v>0.68774352038233366</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>2.7162883564963589E-2</v>
+        <v>-8.66946801266964E-2</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>-5.6343132555852188E-2</v>
+        <v>-0.1165190330490251</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>-6.483130135224735E-2</v>
+        <v>-0.21813090197777091</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>4.7807145766444936E-3</v>
+        <v>-0.1612198885928639</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>2.75813126669237E-2</v>
+        <v>-0.12312593542900981</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>-6.2676812025838913E-3</v>
+        <v>-0.15371903479567181</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>-4.8267166453238128E-2</v>
+        <v>-0.22052295613914691</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5.2550732354213002E-2</v>
+        <v>-7.8263735154765729E-2</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>-3.5165023711251769E-2</v>
+        <v>-0.1974911786663823</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>-7.3732478081402902E-3</v>
+        <v>-0.22295269637181839</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>-1.8163487899253351E-2</v>
+        <v>-0.24428747547542179</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>7.8345040874260863E-2</v>
+        <v>-8.8358846853819006E-2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>-3.1090067696260951E-2</v>
+        <v>-0.21682335829664601</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>3.1202344695091089E-2</v>
+        <v>-0.14742699693352029</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>3.7113875649186057E-2</v>
+        <v>-0.1531036800610647</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>2.858689407426342E-2</v>
+        <v>-0.13442107446660659</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1.5981810210816159E-2</v>
+        <v>-0.21150088787081689</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>3.704217337777108E-3</v>
+        <v>-0.18593339758630731</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>-6.7564037542740651E-2</v>
+        <v>-0.26712600156652372</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>6.935236250544935E-2</v>
+        <v>3.7488045697394397E-2</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>-0.14053496558122791</v>
+        <v>-0.32907174586337412</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>-0.26174501243935111</v>
+        <v>-0.50695124238726319</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>-0.23620167444211551</v>
+        <v>-0.43132178614125738</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>-0.13536499527870571</v>
+        <v>-0.31623715763756488</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>-0.25561229906407118</v>
+        <v>-0.48636327838645432</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>-0.1637175911502923</v>
+        <v>-0.39873894753795042</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>-0.23933285840800361</v>
+        <v>0.60768930780195052</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-0.40710593886843649</v>
+        <v>-0.54105728397644837</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>-0.3867433859417917</v>
+        <v>-0.5475894431551126</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-0.33718373740139568</v>
+        <v>-0.49579134531948782</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-0.28216666776964688</v>
+        <v>-0.49689187624115572</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-0.35804537630337158</v>
+        <v>-0.54232253583909218</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>-0.24145370718850689</v>
+        <v>-0.45800082391176211</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>-0.22805923471759629</v>
+        <v>-0.45486061963973251</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>-0.23613998169379671</v>
+        <v>-0.42764306420380438</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-0.36077975802654638</v>
+        <v>-0.58312219304100488</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-0.28528734046758519</v>
+        <v>-0.52926791476429536</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>-0.20566744651652669</v>
+        <v>-0.43618193963795221</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>-0.1349961087283216</v>
+        <v>-0.35439981104395307</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>-0.27341374988175438</v>
+        <v>-0.53157149788063718</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-0.1855413519477653</v>
+        <v>-0.38316177898283471</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-0.1253748943937448</v>
+        <v>-0.36923390487315288</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>-0.19599748398267949</v>
+        <v>-0.37636252939602721</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>-0.26636057829195031</v>
+        <v>-0.56728465847645482</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>-0.15882045641418749</v>
+        <v>-0.42550996343538311</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>-0.2291974394037202</v>
+        <v>-0.4642657055567172</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>-0.25614257103314358</v>
+        <v>-0.36958808157458323</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>-0.14689397285397879</v>
+        <v>-0.35292960610783508</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>-0.50634579312345296</v>
+        <v>-0.77810536072047998</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>-0.75052974470622447</v>
+        <v>-1.0448139247641599</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>-0.39282276217284062</v>
+        <v>-0.59292026073864823</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>-0.48521696166736028</v>
+        <v>-0.76507493359987122</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>-0.25939538309161347</v>
+        <v>-0.5228835683629095</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-0.39721952046006931</v>
+        <v>0.54938694368383234</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-0.98924541634288676</v>
+        <v>-1.2186542980707229</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>-1.0959266047796159</v>
+        <v>-1.34072721086325</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-0.969159378646407</v>
+        <v>-1.206096135064179</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-0.65066006158028222</v>
+        <v>-0.92769897538461932</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-0.80011472354507029</v>
+        <v>-1.082648836766364</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-0.549936854919157</v>
+        <v>-0.78742481518876672</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-0.45247440547227608</v>
+        <v>-0.70601674130019698</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-0.73787131200172196</v>
+        <v>-1.04448660928083</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-0.81009967795600502</v>
+        <v>-1.090238000815573</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>-0.39519308165235612</v>
+        <v>-0.66032162851649012</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>-0.28687225927017851</v>
+        <v>-0.56219927346890075</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>-0.32706064170793508</v>
+        <v>-0.56115973377393691</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>-0.26899944841668472</v>
+        <v>-0.49795944170583822</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>-0.27879497325024749</v>
+        <v>-0.52090531745707258</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>-0.14328744030754911</v>
+        <v>-0.36123413484027378</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>-0.1938374260741805</v>
+        <v>-0.36584176201646351</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>-0.14768591224126221</v>
+        <v>-0.40725815217187261</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>-4.8159957943516067E-2</v>
+        <v>-0.26461690125503462</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>-0.17260632869665149</v>
+        <v>-0.3811273010523003</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>-0.27146819915240189</v>
+        <v>-0.42193650621143919</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>-4.5932240846369279E-2</v>
+        <v>-0.22416854622258869</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>-0.28116174946236439</v>
+        <v>-0.50265874967838897</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>-0.16994772656946849</v>
+        <v>-0.35974820015908299</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>-0.1437849172547665</v>
+        <v>-0.29514110145483258</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>-0.22143559906395369</v>
+        <v>-0.42173402369887159</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>-0.15297750233259841</v>
+        <v>-0.3860704856580025</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>-0.17900294623396601</v>
+        <v>0.6275587283265085</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-0.3244955563012174</v>
+        <v>-0.42841113227392558</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>-0.26155190402446771</v>
+        <v>-0.4256245211654503</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>-0.32434690551356549</v>
+        <v>-0.49384475406232647</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>-0.29163499146087007</v>
+        <v>-0.51755099097013457</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>-0.35704638767508112</v>
+        <v>-0.59224572953400467</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>-0.1844398509046449</v>
+        <v>-0.34681737435602172</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>-0.192252474822148</v>
+        <v>-0.40872413372427652</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>-0.20852415678129621</v>
+        <v>-0.41322863264731452</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>-0.2292066463405712</v>
+        <v>-0.39506730539749502</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>-0.13538038309872411</v>
+        <v>-0.36022800160536561</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>-6.6742857176782355E-2</v>
+        <v>-0.26742877394145742</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>-8.588299070056149E-3</v>
+        <v>-0.230297612453713</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>-0.1660675328120009</v>
+        <v>-0.39081235273192938</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>-0.12710092901999651</v>
+        <v>-0.3194391810882341</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>-6.3372574670519793E-2</v>
+        <v>-0.25716565100927152</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>-0.110143841373825</v>
+        <v>-0.25246705678095782</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>-0.1498528813591827</v>
+        <v>-0.31519267278790702</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>-3.3071315241759137E-2</v>
+        <v>-0.23668710963728379</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>-0.1169834411766897</v>
+        <v>-0.31710077452163882</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-0.20601878980415869</v>
+        <v>-0.29889678737715258</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>9.9913381045988653E-2</v>
+        <v>-4.7759801926391648E-2</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.11090780390281391</v>
+        <v>-8.2980533421905894E-2</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>-4.0652953752573478E-3</v>
+        <v>-0.1289362875232134</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.1021094920402459</v>
+        <v>-1.069927163183503E-2</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>6.7989519385717262E-2</v>
+        <v>-0.1157876751856063</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.19012917270714499</v>
+        <v>2.833373553336363E-2</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>-0.14097832286393061</v>
+        <v>0.7167732063393486</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>5.5527415257758381E-2</v>
+        <v>1.600425062319662E-4</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.1068016720990836</v>
+        <v>2.5187113082134858E-2</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>6.4683906225604937E-3</v>
+        <v>-0.11140913272798</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>9.7480105811046547E-2</v>
+        <v>-8.6021099801104797E-2</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.15647172069396589</v>
+        <v>1.136572706262997E-2</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>9.8319846711138026E-2</v>
+        <v>-6.6628724035820541E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.14155173324448081</v>
+        <v>-2.523507286113378E-2</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.14207845194336599</v>
+        <v>2.0402246370301681E-4</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>3.5253660307549763E-2</v>
+        <v>-0.10552011467967461</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>7.9004012180288824E-2</v>
+        <v>-0.1336309254194987</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>6.6315477537175593E-2</v>
+        <v>-0.1242505985043104</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>5.7401631397939787E-2</v>
+        <v>-5.9763758392031496E-3</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>-7.9456052796448046E-2</v>
+        <v>-0.26028274340224078</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>2.5187942729019929E-2</v>
+        <v>-0.14603242949050471</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>5.5380328055139892E-2</v>
+        <v>-0.120887806285269</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>6.194188745389792E-2</v>
+        <v>-8.1464050503964353E-2</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>8.002892789958202E-2</v>
+        <v>-0.1164532471087701</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.1047572216687063</v>
+        <v>-8.7600759198514053E-2</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>3.100615165644105E-2</v>
+        <v>-0.13482267237472981</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>-9.7009262033939045E-3</v>
+        <v>-1.0271033628819349E-3</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -1519,842 +1519,842 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>-7.7406007707553515E-2</v>
+        <v>-4.1858416973465928E-2</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.38030930441663552</v>
+        <v>0.37980088051214772</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>-0.44312089302765822</v>
+        <v>-0.47928967071927958</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>-0.69778780639916693</v>
+        <v>-0.733249225760221</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>4.5247821931205343E-2</v>
+        <v>0.1032392180644172</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>-0.51916581689906094</v>
+        <v>-0.51766527272842611</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>-0.99463144456810904</v>
+        <v>-0.99732363986965056</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>-0.31425717663438912</v>
+        <v>-0.50862862628442618</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>-0.47078131618866492</v>
+        <v>-0.56572278007859889</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>-0.29491022372707909</v>
+        <v>-0.42035719472602678</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>-0.34775257887735461</v>
+        <v>-0.38804965530658297</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>-0.52114170280369798</v>
+        <v>-0.56012986627423367</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>-0.55676155085284362</v>
+        <v>-0.58095054595180085</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>-0.68594807094035004</v>
+        <v>-0.69184636444259151</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>-0.72818845577385849</v>
+        <v>-0.73668003766196821</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>-0.22116041532141681</v>
+        <v>-0.35456855869892462</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>-0.29605529548505433</v>
+        <v>-0.16159191920407151</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>-0.46980368295450309</v>
+        <v>-0.47022288051521322</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>-0.7003313373336586</v>
+        <v>-0.71167398891348577</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>-0.30173008015446479</v>
+        <v>-0.3612869377223884</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>-0.2258404450836525</v>
+        <v>-0.22063594268227379</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>-1.335468059748858E-3</v>
+        <v>-1.027841919566721E-2</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>-0.36821424551168153</v>
+        <v>-0.47406769145371352</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.21936075444167361</v>
+        <v>0.27949092000003378</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>-0.34974166917552862</v>
+        <v>-0.30647958509122541</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>-2.4967377787720471E-2</v>
+        <v>-8.3724482939565321E-3</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>-0.70896433501948408</v>
+        <v>-0.78240824255047692</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.37775624615677977</v>
+        <v>0.37564753388334032</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.51835810630634493</v>
+        <v>0.70140426839285164</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>-2.722391584057576E-2</v>
+        <v>-0.19165608142785781</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>-0.38621797660618801</v>
+        <v>-0.44781144444439169</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.4314434582721014</v>
+        <v>0.63986219557672819</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>-0.44854538593679588</v>
+        <v>-0.44350891350919169</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>-0.98855660712475979</v>
+        <v>-0.99465413184048623</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.22134660709317039</v>
+        <v>-2.1145338185930881E-2</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.61765309753521702</v>
+        <v>-9.072736829764623E-3</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.78347217974313432</v>
+        <v>0.56335662962353017</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>0.15829531389538989</v>
+        <v>0.1055687590210761</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>7.9330242050768995E-2</v>
+        <v>-2.5405398071807011E-2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.17577460290077651</v>
+        <v>2.932927972056364E-2</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.2152260486229215</v>
+        <v>0.14254744585599391</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>-0.28963552402019288</v>
+        <v>-0.38477942297654327</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.38988177571478788</v>
+        <v>0.2662755499217927</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.60581999321600311</v>
+        <v>0.83014890373676953</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.49760545376021897</v>
+        <v>0.71939463114977609</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>-2.371942760076819E-2</v>
+        <v>-3.2630695888759609E-2</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.59429128388976427</v>
+        <v>0.56456078027679024</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.52034168406236114</v>
+        <v>0.50887814036226287</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.6786871256219027</v>
+        <v>0.80280141234948132</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.30926597932810113</v>
+        <v>0.25038508724133629</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>1.014055929342085</v>
+        <v>1.3577096586548121</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.94803625483064735</v>
+        <v>1.0143523339820351</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>1.1911039048745331</v>
+        <v>1.2798971718563661</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>-0.18064044816448821</v>
+        <v>-0.50633775869041564</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>-0.60641590433348336</v>
+        <v>-0.651125155975387</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>-0.52894920530495981</v>
+        <v>-0.50811315696386838</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>-0.46117610376859841</v>
+        <v>-0.54600831139628303</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>-0.732354808140673</v>
+        <v>-0.75335537176380685</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>-0.56565455400680786</v>
+        <v>-0.55980550374370797</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>-0.76568329814643588</v>
+        <v>-0.74824282562886191</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>-0.99546263702138349</v>
+        <v>-0.99735874230340182</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>-0.34642172660857778</v>
+        <v>-0.5189408027807535</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>-0.30043439975453867</v>
+        <v>-0.50837488900811945</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>-0.48928658758591348</v>
+        <v>-0.63358587336922367</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>-0.48420691630384199</v>
+        <v>-0.50635566908042562</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>-0.45907289857641959</v>
+        <v>-0.58026442320950544</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>-0.658996321650547</v>
+        <v>-0.69632194639052114</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>-0.74043931853519807</v>
+        <v>-0.73366687877231329</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>-0.72086355279179437</v>
+        <v>-0.76588426749798355</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>-0.36332835124344948</v>
+        <v>-0.4567671104986758</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>-0.30287644581192552</v>
+        <v>-0.32298187424483898</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>-0.57940832701727585</v>
+        <v>-0.59454567499904043</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>-0.62438543971480143</v>
+        <v>-0.61546604987137876</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>-0.26332179653056498</v>
+        <v>-0.21059259939620911</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>-0.33878286233959243</v>
+        <v>-0.37375837731496309</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>-0.1854136811086268</v>
+        <v>-6.741715355589975E-2</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>-0.41147803126874782</v>
+        <v>-0.46536516732188732</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>-9.5598287082246713E-2</v>
+        <v>1.410154513964345E-2</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>-0.3269419557350719</v>
+        <v>-0.22921157606344009</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>-0.45539131225824242</v>
+        <v>-0.46494935448306979</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>-0.28607097658866792</v>
+        <v>-0.5149411663493062</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>0.55779936850608558</v>
+        <v>0.5062200766116165</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>4.4407351876648944</v>
+        <v>4.4149108015961733</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>17.863191510934751</v>
+        <v>16.989543462612211</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>4.5322643378278382</v>
+        <v>3.7759143027493569</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>3.348967426476015</v>
+        <v>3.4061861408770211</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>2.8848480914508361</v>
+        <v>3.307786130138612</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>-0.96948471717125351</v>
+        <v>-0.98274435150275952</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>12.603797957637161</v>
+        <v>9.7790071256113063</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>21.770416459611749</v>
+        <v>16.38383531253184</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>26.752837217712901</v>
+        <v>20.91476525540255</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>15.8637271896266</v>
+        <v>15.228774118511179</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>19.37491223339013</v>
+        <v>17.43960176238981</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>8.6045472101840481</v>
+        <v>7.5732386118144026</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>1.6325649570067211</v>
+        <v>1.590999491387838</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>5.0075754474975689</v>
+        <v>4.8238913367756906</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>11.16091287575748</v>
+        <v>9.7377949869995852</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>6.1089830003774477</v>
+        <v>6.3005160432645164</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>3.8465178342361859</v>
+        <v>4.3551014614786094</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>82.047183618917416</v>
+        <v>80.469410850506364</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>25.616011334854338</v>
+        <v>25.428272450982401</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>8.3146226987758496</v>
+        <v>8.4637863534375626</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>7.3753824380384643</v>
+        <v>7.726826364908244</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>4.6055235427111114</v>
+        <v>3.9353959590835799</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>4.0104549118897594</v>
+        <v>4.7757013409914979</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>1.1889488445722829</v>
+        <v>1.3807989496494719</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>4.1638231405032284</v>
+        <v>4.184360272341423</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>101.9214505038204</v>
+        <v>85.990169326695295</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>-0.55548193644887678</v>
+        <v>-0.59155898939907936</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.3036513758750472</v>
+        <v>0.25261262824934477</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>-0.19369278634806461</v>
+        <v>-0.28770211466780871</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>-0.35581189902986798</v>
+        <v>-0.46145592238731992</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>-0.31159457430826282</v>
+        <v>-0.35536516287896569</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>-0.53646068758503529</v>
+        <v>-0.50293430825809315</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>-0.99194114340825412</v>
+        <v>-0.99573062354342912</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>8.9309692066161184E-2</v>
+        <v>-0.2492776743125602</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>-4.1670905089042712E-2</v>
+        <v>-0.25102455767365472</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>-6.457811304900829E-2</v>
+        <v>-0.27901165040800219</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>-2.8131344112529839E-2</v>
+        <v>-4.4366283196028963E-2</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.16732090375478439</v>
+        <v>8.0420877105924882E-2</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>-0.40942500950156552</v>
+        <v>-0.52563320685402748</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>-0.51310010636413561</v>
+        <v>-0.50536771283491067</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>-0.4421698022042263</v>
+        <v>-0.48194284044854552</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>-3.6522309376136812E-2</v>
+        <v>-0.22498333781338689</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>-0.25808088184810202</v>
+        <v>-0.24975932070418411</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>-0.49579061625484322</v>
+        <v>-0.50627846009971256</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>-0.43235425254782478</v>
+        <v>-0.36687884830065332</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>-5.124661271845873E-3</v>
+        <v>2.53918048299334E-2</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>-0.1158666091273914</v>
+        <v>-0.16894935198221389</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>-0.20849289798874171</v>
+        <v>-0.20325271524286731</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>-0.23692170752782771</v>
+        <v>-0.35946377103464761</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.22336812258394631</v>
+        <v>1.0430964855427429E-2</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>-0.25708233367940531</v>
+        <v>-0.22844283188900619</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>-0.33534740507306537</v>
+        <v>-0.35709717471258029</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>1.465504819678872</v>
+        <v>0.72570734994504138</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>-0.10508520066096839</v>
+        <v>21.645774881086961</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>-0.65633050999456177</v>
+        <v>-0.60658425793343718</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>1.6862119680826279E-2</v>
+        <v>30.532281160052051</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>-0.612844427892421</v>
+        <v>-0.70485959343747884</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>-0.32638429809669067</v>
+        <v>-0.45684907302595401</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>-0.86340111983068168</v>
+        <v>-0.84517425832161353</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>-0.9945103084146063</v>
+        <v>-0.99928617815828691</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>-0.56329922766256191</v>
+        <v>-0.72182472647361207</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>-0.47321426298952313</v>
+        <v>13.6358627635597</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>-0.33481512030685923</v>
+        <v>18.12640444802382</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>-0.27243569465451939</v>
+        <v>-0.21171145527350149</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>-0.5445257679520723</v>
+        <v>25.483207337873939</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>-0.45249913433064187</v>
+        <v>24.759511514132729</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>-0.72598332545243438</v>
+        <v>-0.75464552547421671</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>-0.63128717773474374</v>
+        <v>27.836239040399349</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>-0.17052677987183909</v>
+        <v>25.907289049262229</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>6.044289626344343E-2</v>
+        <v>30.22759575120455</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>-7.9919724060524555E-2</v>
+        <v>19.08471991968505</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>0.185500587436598</v>
+        <v>2.135157734110163E-2</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>1.523079621257762</v>
+        <v>1.537699412382677</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.4360350833679707</v>
+        <v>0.31723323688132149</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.7335883177030591</v>
+        <v>1.03077024425577</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.32673812730136897</v>
+        <v>1.4323604969374241E-2</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0.31117376108301131</v>
+        <v>19.010741683363921</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>-5.5367764631195297E-2</v>
+        <v>0.86629457269638055</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.34003098101664198</v>
+        <v>24.599248512273789</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>0.50758328786166373</v>
+        <v>10.466385198160779</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>4.8472723426386253</v>
+        <v>10.1197834426938</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>3.994418970528189</v>
+        <v>3.857106064674984</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>4.9922030450900721</v>
+        <v>11.1494169887903</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>3.9266134699086339</v>
+        <v>3.5940555367691922</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>4.3459271989459989</v>
+        <v>3.9121555582837111</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>3.3097002604626251</v>
+        <v>3.2426411746540809</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
@@ -2364,132 +2364,132 @@
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>4.0776384414457922</v>
+        <v>3.6458520698048131</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>4.1647844699084278</v>
+        <v>9.0301242761162257</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>4.0288495390633896</v>
+        <v>8.7214472578097642</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>4.5536056163533871</v>
+        <v>4.3320332813150948</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>4.2087941748875419</v>
+        <v>10.514183493853141</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>4.1040633424732818</v>
+        <v>9.7114978159431082</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>3.5033287580532591</v>
+        <v>3.2168860663891312</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>3.8904690705256622</v>
+        <v>10.528130120394939</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>4.5200437866091594</v>
+        <v>10.00291494139416</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>5.1640075005651589</v>
+        <v>10.81562023164761</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>4.8178180095826466</v>
+        <v>9.5638652944393492</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>5.2202915909437628</v>
+        <v>5.2040225021883373</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>6.0716065492765843</v>
+        <v>5.8756638070988094</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>5.5191739481814448</v>
+        <v>5.1652156658472377</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>5.9501037997163166</v>
+        <v>5.9068406489471172</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>5.4275147648055331</v>
+        <v>4.8609295646808288</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>5.7593765056040764</v>
+        <v>10.45781531716265</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>5.1110939481566504</v>
+        <v>5.693479520004237</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>5.3398319306119468</v>
+        <v>10.420136872834849</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>5.8903344205696868</v>
+        <v>10.01576881730236</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>4.8472723426386253</v>
+        <v>10.1197834426938</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>3.994418970528189</v>
+        <v>3.857106064674984</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>4.9922030450900721</v>
+        <v>11.1494169887903</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>3.9266134699086339</v>
+        <v>3.5940555367691922</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>4.3459271989459989</v>
+        <v>3.9121555582837111</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>3.3097002604626251</v>
+        <v>3.2426411746540809</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
@@ -2499,132 +2499,132 @@
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>4.0776384414457922</v>
+        <v>3.6458520698048131</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>4.1647844699084278</v>
+        <v>9.0301242761162257</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>4.0288495390633896</v>
+        <v>8.7214472578097642</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>4.5536056163533871</v>
+        <v>4.3320332813150948</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>4.2087941748875419</v>
+        <v>10.514183493853141</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>4.1040633424732818</v>
+        <v>9.7114978159431082</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>3.5033287580532591</v>
+        <v>3.2168860663891312</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>3.8904690705256622</v>
+        <v>10.528130120394939</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>4.5200437866091594</v>
+        <v>10.00291494139416</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>5.1640075005651589</v>
+        <v>10.81562023164761</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>4.8178180095826466</v>
+        <v>9.5638652944393492</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>5.2202915909437628</v>
+        <v>5.2040225021883373</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>6.0716065492765843</v>
+        <v>5.8756638070988094</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>5.5191739481814448</v>
+        <v>5.1652156658472377</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>5.9501037997163166</v>
+        <v>5.9068406489471172</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>5.4275147648055331</v>
+        <v>4.8609295646808288</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>5.7593765056040764</v>
+        <v>10.45781531716265</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>5.1110939481566504</v>
+        <v>5.693479520004237</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>5.3398319306119468</v>
+        <v>10.420136872834849</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>5.8903344205696868</v>
+        <v>10.01576881730236</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>4.8472723426386253</v>
+        <v>10.1197834426938</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>3.994418970528189</v>
+        <v>3.857106064674984</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>4.9922030450900721</v>
+        <v>11.1494169887903</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>3.9266134699086339</v>
+        <v>3.5940555367691922</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>4.3459271989459989</v>
+        <v>3.9121555582837111</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>3.3097002604626251</v>
+        <v>3.2426411746540809</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
@@ -2634,132 +2634,132 @@
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>4.0776384414457922</v>
+        <v>3.6458520698048131</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>4.1647844699084278</v>
+        <v>9.0301242761162257</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>4.0288495390633896</v>
+        <v>8.7214472578097642</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>4.5536056163533871</v>
+        <v>4.3320332813150948</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>4.2087941748875419</v>
+        <v>10.514183493853141</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>4.1040633424732818</v>
+        <v>9.7114978159431082</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>3.5033287580532591</v>
+        <v>3.2168860663891312</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>3.8904690705256622</v>
+        <v>10.528130120394939</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>4.5200437866091594</v>
+        <v>10.00291494139416</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>5.1640075005651589</v>
+        <v>10.81562023164761</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>4.8178180095826466</v>
+        <v>9.5638652944393492</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>5.2202915909437628</v>
+        <v>5.2040225021883373</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>6.0716065492765843</v>
+        <v>5.8756638070988094</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>5.5191739481814448</v>
+        <v>5.1652156658472377</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>5.9501037997163166</v>
+        <v>5.9068406489471172</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>5.4275147648055331</v>
+        <v>4.8609295646808288</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>5.7593765056040764</v>
+        <v>10.45781531716265</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>5.1110939481566504</v>
+        <v>5.693479520004237</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>5.3398319306119468</v>
+        <v>10.420136872834849</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>5.8903344205696868</v>
+        <v>10.01576881730236</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>4.8472723426386253</v>
+        <v>10.1197834426938</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>3.994418970528189</v>
+        <v>3.857106064674984</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>4.9922030450900721</v>
+        <v>11.1494169887903</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>3.9266134699086339</v>
+        <v>3.5940555367691922</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>4.3459271989459989</v>
+        <v>3.9121555582837111</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>3.3097002604626251</v>
+        <v>3.2426411746540809</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
@@ -2769,132 +2769,132 @@
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>4.0776384414457922</v>
+        <v>3.6458520698048131</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>4.1647844699084278</v>
+        <v>9.0301242761162257</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>4.0288495390633896</v>
+        <v>8.7214472578097642</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>4.5536056163533871</v>
+        <v>4.3320332813150948</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>4.2087941748875419</v>
+        <v>10.514183493853141</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>4.1040633424732818</v>
+        <v>9.7114978159431082</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>3.5033287580532591</v>
+        <v>3.2168860663891312</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>3.8904690705256622</v>
+        <v>10.528130120394939</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>4.5200437866091594</v>
+        <v>10.00291494139416</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>5.1640075005651589</v>
+        <v>10.81562023164761</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>4.8178180095826466</v>
+        <v>9.5638652944393492</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>5.2202915909437628</v>
+        <v>5.2040225021883373</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>6.0716065492765843</v>
+        <v>5.8756638070988094</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>5.5191739481814448</v>
+        <v>5.1652156658472377</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>5.9501037997163166</v>
+        <v>5.9068406489471172</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>5.4275147648055331</v>
+        <v>4.8609295646808288</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>5.7593765056040764</v>
+        <v>10.45781531716265</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>5.1110939481566504</v>
+        <v>5.693479520004237</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>5.3398319306119468</v>
+        <v>10.420136872834849</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>5.8903344205696868</v>
+        <v>10.01576881730236</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>4.8472723426386253</v>
+        <v>10.1197834426938</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>3.994418970528189</v>
+        <v>3.857106064674984</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>4.9922030450900721</v>
+        <v>11.1494169887903</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>3.9266134699086339</v>
+        <v>3.5940555367691922</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>4.3459271989459989</v>
+        <v>3.9121555582837111</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>3.3097002604626251</v>
+        <v>3.2426411746540809</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
@@ -2904,132 +2904,132 @@
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>4.0776384414457922</v>
+        <v>3.6458520698048131</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>4.1647844699084278</v>
+        <v>9.0301242761162257</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>4.0288495390633896</v>
+        <v>8.7214472578097642</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>4.5536056163533871</v>
+        <v>4.3320332813150948</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>4.2087941748875419</v>
+        <v>10.514183493853141</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>4.1040633424732818</v>
+        <v>9.7114978159431082</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>3.5033287580532591</v>
+        <v>3.2168860663891312</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>3.8904690705256622</v>
+        <v>10.528130120394939</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>4.5200437866091594</v>
+        <v>10.00291494139416</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>5.1640075005651589</v>
+        <v>10.81562023164761</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>4.8178180095826466</v>
+        <v>9.5638652944393492</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>5.2202915909437628</v>
+        <v>5.2040225021883373</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>6.0716065492765843</v>
+        <v>5.8756638070988094</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>5.5191739481814448</v>
+        <v>5.1652156658472377</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>5.9501037997163166</v>
+        <v>5.9068406489471172</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>5.4275147648055331</v>
+        <v>4.8609295646808288</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>5.7593765056040764</v>
+        <v>10.45781531716265</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>5.1110939481566504</v>
+        <v>5.693479520004237</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>5.3398319306119468</v>
+        <v>10.420136872834849</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>5.8903344205696868</v>
+        <v>10.01576881730236</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>4.8472723426386253</v>
+        <v>10.1197834426938</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>3.994418970528189</v>
+        <v>3.857106064674984</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>4.9922030450900721</v>
+        <v>11.1494169887903</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>3.9266134699086339</v>
+        <v>3.5940555367691922</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>4.3459271989459989</v>
+        <v>3.9121555582837111</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>3.3097002604626251</v>
+        <v>3.2426411746540809</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
@@ -3039,132 +3039,132 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>4.0776384414457922</v>
+        <v>3.6458520698048131</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>4.1647844699084278</v>
+        <v>9.0301242761162257</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>4.0288495390633896</v>
+        <v>8.7214472578097642</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>4.5536056163533871</v>
+        <v>4.3320332813150948</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>4.2087941748875419</v>
+        <v>10.514183493853141</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>4.1040633424732818</v>
+        <v>9.7114978159431082</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>3.5033287580532591</v>
+        <v>3.2168860663891312</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>3.8904690705256622</v>
+        <v>10.528130120394939</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>4.5200437866091594</v>
+        <v>10.00291494139416</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>5.1640075005651589</v>
+        <v>10.81562023164761</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>4.8178180095826466</v>
+        <v>9.5638652944393492</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>5.2202915909437628</v>
+        <v>5.2040225021883373</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>6.0716065492765843</v>
+        <v>5.8756638070988094</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>5.5191739481814448</v>
+        <v>5.1652156658472377</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>5.9501037997163166</v>
+        <v>5.9068406489471172</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>5.4275147648055331</v>
+        <v>4.8609295646808288</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>5.7593765056040764</v>
+        <v>10.45781531716265</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>5.1110939481566504</v>
+        <v>5.693479520004237</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>5.3398319306119468</v>
+        <v>10.420136872834849</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541">
-        <v>5.8903344205696868</v>
+        <v>10.01576881730236</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>4.8472723426386253</v>
+        <v>10.1197834426938</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>3.994418970528189</v>
+        <v>3.857106064674984</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>4.9922030450900721</v>
+        <v>11.1494169887903</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>3.9266134699086339</v>
+        <v>3.5940555367691922</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>4.3459271989459989</v>
+        <v>3.9121555582837111</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
-        <v>3.3097002604626251</v>
+        <v>3.2426411746540809</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
@@ -3174,102 +3174,102 @@
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>4.0776384414457922</v>
+        <v>3.6458520698048131</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>4.1647844699084278</v>
+        <v>9.0301242761162257</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
-        <v>4.0288495390633896</v>
+        <v>8.7214472578097642</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552">
-        <v>4.5536056163533871</v>
+        <v>4.3320332813150948</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>4.2087941748875419</v>
+        <v>10.514183493853141</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
-        <v>4.1040633424732818</v>
+        <v>9.7114978159431082</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>3.5033287580532591</v>
+        <v>3.2168860663891312</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>3.8904690705256622</v>
+        <v>10.528130120394939</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>4.5200437866091594</v>
+        <v>10.00291494139416</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558">
-        <v>5.1640075005651589</v>
+        <v>10.81562023164761</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
-        <v>4.8178180095826466</v>
+        <v>9.5638652944393492</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
-        <v>5.2202915909437628</v>
+        <v>5.2040225021883373</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
-        <v>6.0716065492765843</v>
+        <v>5.8756638070988094</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>5.5191739481814448</v>
+        <v>5.1652156658472377</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
-        <v>5.9501037997163166</v>
+        <v>5.9068406489471172</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>5.4275147648055331</v>
+        <v>4.8609295646808288</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
-        <v>5.7593765056040764</v>
+        <v>10.45781531716265</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
-        <v>5.1110939481566504</v>
+        <v>5.693479520004237</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>5.3398319306119468</v>
+        <v>10.420136872834849</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568">
-        <v>5.8903344205696868</v>
+        <v>10.01576881730236</v>
       </c>
     </row>
   </sheetData>
